--- a/hsl-2022.xlsx
+++ b/hsl-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E736CB-C3F1-42DA-863C-49B45E73ED49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55803F89-6057-4A85-8138-E94473DE5F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2625" windowWidth="21503" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -69,6 +69,40 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Tom</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{17AC6B9E-7850-4A6E-83AF-AD6AD422800D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Tom:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Rtd4 ipv 6 ivm rood sein</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
   <si>
@@ -283,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -311,6 +345,19 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1554,11 +1601,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC9A400-C9E9-4CBA-A9E0-987D9F20D0D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC9A400-C9E9-4CBA-A9E0-987D9F20D0D9}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1617,9 +1664,11 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
+      <c r="B8" s="4"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
+      <c r="B9" s="4"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
@@ -1683,5 +1732,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/hsl-2022.xlsx
+++ b/hsl-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55803F89-6057-4A85-8138-E94473DE5F2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32359F6-652C-4EFB-811C-8E6E7698BB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2625" windowWidth="21503" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
   <si>
     <t>Treinserie</t>
   </si>
@@ -311,6 +311,10 @@
   <si>
     <t>9200 vertraagd achter speler
 2400 rijdt niet</t>
+  </si>
+  <si>
+    <t>- Rtd
+- Bd</t>
   </si>
 </sst>
 </file>
@@ -386,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -397,6 +401,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1604,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC9A400-C9E9-4CBA-A9E0-987D9F20D0D9}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1705,14 +1712,20 @@
       </c>
       <c r="B14" s="4"/>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>51</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.45">

--- a/hsl-2022.xlsx
+++ b/hsl-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32359F6-652C-4EFB-811C-8E6E7698BB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A92C03-A6AB-4B90-86F6-A4F784A0FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2625" windowWidth="21503" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9585" yWindow="2100" windowWidth="21503" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinseries" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
   <si>
     <t>Treinserie</t>
   </si>
@@ -315,6 +315,9 @@
   <si>
     <t>- Rtd
 - Bd</t>
+  </si>
+  <si>
+    <t>nvt</t>
   </si>
 </sst>
 </file>
@@ -1611,8 +1614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC9A400-C9E9-4CBA-A9E0-987D9F20D0D9}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1728,17 +1731,20 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.45">
+      <c r="B18" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>

--- a/hsl-2022.xlsx
+++ b/hsl-2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A92C03-A6AB-4B90-86F6-A4F784A0FE5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059B02D4-B7D6-418F-A76F-4EBED3B631E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9585" yWindow="2100" windowWidth="21503" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="2100" windowWidth="21503" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinseries" sheetId="1" r:id="rId1"/>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
   <si>
     <t>Treinserie</t>
   </si>
@@ -318,6 +318,10 @@
   </si>
   <si>
     <t>nvt</t>
+  </si>
+  <si>
+    <t>- IJsm
+- Zlw</t>
   </si>
 </sst>
 </file>
@@ -393,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -409,6 +413,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1615,7 +1620,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1628,7 +1633,7 @@
       <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>55</v>
       </c>
     </row>
@@ -1696,9 +1701,12 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>47</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
@@ -1735,6 +1743,9 @@
       <c r="A17" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
@@ -1748,9 +1759,11 @@
       <c r="A19" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="B19" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/hsl-2022.xlsx
+++ b/hsl-2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tom\Code\quickdrive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{059B02D4-B7D6-418F-A76F-4EBED3B631E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6581B2F-0F63-466E-9E28-66BBB38FBFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2100" windowWidth="21503" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="75">
   <si>
     <t>Treinserie</t>
   </si>
@@ -323,12 +323,158 @@
     <t>- IJsm
 - Zlw</t>
   </si>
+  <si>
+    <t>1174 Bd-Rtd</t>
+  </si>
+  <si>
+    <t>Bd:
+- Bd6 6600 +1
+- Bd5 9200 +7</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bd-Rtd:
+- Nvbro 9200
+- Hszha 1100 +1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- 900 rijdt niet
+- 9300 niet dit halfuur
+- 9100 niet dit halfuur
+- 5000 niet zondag
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- Wiltz 3700
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 9200 niet dit halfuur</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 2400 niet zondag</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Rtd3 1100 +1</t>
+    </r>
+  </si>
+  <si>
+    <t>(Bd-Ddr-Rtd):
+- Mdbz 5900
+- Brd 5100 +1</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Rtd:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 1000 rijdt niet</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Rtd7 2200 +1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- 2800 niet na 21h</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+- Rtd16 4000
+- 5200 rijdt niet</t>
+    </r>
+  </si>
+  <si>
+    <t>- 5200 rijdt niet
+- 900 rijdt niet?
+- 2400 rijdt niet</t>
+  </si>
+  <si>
+    <t>Rlb Nosta https://sion-rail.nl/viewtopic.php?p=198430&amp;hilit=rtd#p198430</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +516,13 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -397,7 +550,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -414,6 +567,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -1617,91 +1773,119 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCC9A400-C9E9-4CBA-A9E0-987D9F20D0D9}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="18.46484375" customWidth="1"/>
     <col min="2" max="2" width="18.1328125" customWidth="1"/>
+    <col min="3" max="3" width="20.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="71.25" x14ac:dyDescent="0.45">
+      <c r="C2" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="71.25" x14ac:dyDescent="0.45">
       <c r="A3" s="3" t="s">
         <v>44</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="57" x14ac:dyDescent="0.45">
+      <c r="C3" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="156.75" x14ac:dyDescent="0.45">
       <c r="A4" s="3"/>
       <c r="B4" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="C4" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A5" s="3"/>
       <c r="B5" s="5" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C5" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="85.5" x14ac:dyDescent="0.45">
       <c r="A6" s="3"/>
       <c r="B6" s="5" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C6" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A7" s="3"/>
       <c r="B7" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A8" s="3"/>
       <c r="B8" s="4"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C10" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="57" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C11" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>47</v>
       </c>
@@ -1709,21 +1893,25 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:3" ht="42.75" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="C13" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B14" s="4"/>
-    </row>
-    <row r="15" spans="1:2" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="C14" s="4"/>
+    </row>
+    <row r="15" spans="1:3" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
@@ -1731,7 +1919,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>51</v>
       </c>
